--- a/appdata/data/test11_test__test.xlsx
+++ b/appdata/data/test11_test__test.xlsx
@@ -931,6 +931,191 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Main</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-08-24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2841</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lock:</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-08-31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Unlocked</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>test11</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
